--- a/src/mapping/湛泸一级清洗数据.xlsx
+++ b/src/mapping/湛泸一级清洗数据.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lokiluo/work/pipes/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lokiluo/work/pipes/src/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680"/>
+    <workbookView xWindow="30380" yWindow="-1400" windowWidth="24800" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="218">
   <si>
     <t>ps_name_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1401,6 +1402,36 @@
   </si>
   <si>
     <t>info_certification.channel_api_no, info_certification.result</t>
+  </si>
+  <si>
+    <r>
+      <t>Numeric(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>biztype</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1897,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1910,8 +1941,8 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
+      <c r="C2" s="17" t="s">
+        <v>216</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>215</v>
@@ -2432,7 +2463,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -2936,4 +2967,97 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>